--- a/SchedulingData/dynamic9/pso/scheduling1_12.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling1_12.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.24</v>
+        <v>73.92</v>
       </c>
       <c r="E2" t="n">
-        <v>26.656</v>
+        <v>25.268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>45.28</v>
+        <v>64.52</v>
       </c>
       <c r="E3" t="n">
-        <v>26.172</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>86.78</v>
+        <v>56.64</v>
       </c>
       <c r="E4" t="n">
-        <v>25.952</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>48.3</v>
+        <v>65.98</v>
       </c>
       <c r="E5" t="n">
-        <v>26.36</v>
+        <v>27.052</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>73.92</v>
       </c>
       <c r="D6" t="n">
-        <v>56.64</v>
+        <v>120.14</v>
       </c>
       <c r="E6" t="n">
-        <v>26.516</v>
+        <v>22.276</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50.24</v>
+        <v>64.52</v>
       </c>
       <c r="D7" t="n">
-        <v>117.14</v>
+        <v>114.16</v>
       </c>
       <c r="E7" t="n">
-        <v>23.056</v>
+        <v>22.864</v>
       </c>
     </row>
     <row r="8">
@@ -580,22 +580,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>117.14</v>
+        <v>114.16</v>
       </c>
       <c r="D8" t="n">
-        <v>192.24</v>
+        <v>166.86</v>
       </c>
       <c r="E8" t="n">
-        <v>18.636</v>
+        <v>18.724</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -603,70 +603,70 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>116.2</v>
+        <v>48.6</v>
       </c>
       <c r="E9" t="n">
-        <v>22.2</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>116.2</v>
+        <v>120.14</v>
       </c>
       <c r="D10" t="n">
-        <v>183.7</v>
+        <v>181.86</v>
       </c>
       <c r="E10" t="n">
-        <v>18.06</v>
+        <v>18.244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>45.28</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>133.62</v>
+        <v>90.5</v>
       </c>
       <c r="E11" t="n">
-        <v>22.428</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>56.64</v>
       </c>
       <c r="D12" t="n">
-        <v>64.52</v>
+        <v>114.24</v>
       </c>
       <c r="E12" t="n">
-        <v>26.208</v>
+        <v>22.376</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64.52</v>
+        <v>181.86</v>
       </c>
       <c r="D13" t="n">
-        <v>118.24</v>
+        <v>224.08</v>
       </c>
       <c r="E13" t="n">
-        <v>21.476</v>
+        <v>15.652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>192.24</v>
+        <v>90.5</v>
       </c>
       <c r="D14" t="n">
-        <v>236.72</v>
+        <v>173</v>
       </c>
       <c r="E14" t="n">
-        <v>14.828</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="15">
@@ -713,155 +713,155 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>56.64</v>
+        <v>114.24</v>
       </c>
       <c r="D15" t="n">
-        <v>118.26</v>
+        <v>188.74</v>
       </c>
       <c r="E15" t="n">
-        <v>22.484</v>
+        <v>18.996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>183.7</v>
+        <v>48.6</v>
       </c>
       <c r="D16" t="n">
-        <v>220.02</v>
+        <v>129.2</v>
       </c>
       <c r="E16" t="n">
-        <v>15.068</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>118.26</v>
+        <v>129.2</v>
       </c>
       <c r="D17" t="n">
-        <v>174.66</v>
+        <v>177.52</v>
       </c>
       <c r="E17" t="n">
-        <v>19.444</v>
+        <v>17.168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>174.66</v>
+        <v>224.08</v>
       </c>
       <c r="D18" t="n">
-        <v>226.7</v>
+        <v>276.44</v>
       </c>
       <c r="E18" t="n">
-        <v>15.86</v>
+        <v>13.056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118.24</v>
+        <v>173</v>
       </c>
       <c r="D19" t="n">
-        <v>188.54</v>
+        <v>241.54</v>
       </c>
       <c r="E19" t="n">
-        <v>16.556</v>
+        <v>17.676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>188.54</v>
+        <v>188.74</v>
       </c>
       <c r="D20" t="n">
-        <v>249.22</v>
+        <v>277.72</v>
       </c>
       <c r="E20" t="n">
-        <v>13.608</v>
+        <v>15.168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>86.78</v>
+        <v>65.98</v>
       </c>
       <c r="D21" t="n">
-        <v>155.36</v>
+        <v>127.66</v>
       </c>
       <c r="E21" t="n">
-        <v>23.664</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>155.36</v>
+        <v>166.86</v>
       </c>
       <c r="D22" t="n">
-        <v>218.16</v>
+        <v>222.36</v>
       </c>
       <c r="E22" t="n">
-        <v>19.524</v>
+        <v>14.304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -869,32 +869,32 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>218.16</v>
+        <v>277.72</v>
       </c>
       <c r="D23" t="n">
-        <v>275.26</v>
+        <v>329.82</v>
       </c>
       <c r="E23" t="n">
-        <v>15.444</v>
+        <v>11.088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>249.22</v>
+        <v>177.52</v>
       </c>
       <c r="D24" t="n">
-        <v>306.48</v>
+        <v>229.22</v>
       </c>
       <c r="E24" t="n">
-        <v>11.012</v>
+        <v>14.128</v>
       </c>
     </row>
     <row r="25">
@@ -903,93 +903,93 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>275.26</v>
+        <v>229.22</v>
       </c>
       <c r="D25" t="n">
-        <v>328.16</v>
+        <v>323.2</v>
       </c>
       <c r="E25" t="n">
-        <v>11.784</v>
+        <v>10.32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>226.7</v>
+        <v>276.44</v>
       </c>
       <c r="D26" t="n">
-        <v>290.28</v>
+        <v>342.42</v>
       </c>
       <c r="E26" t="n">
-        <v>13.132</v>
+        <v>10.088</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>290.28</v>
+        <v>127.66</v>
       </c>
       <c r="D27" t="n">
-        <v>351.26</v>
+        <v>171.24</v>
       </c>
       <c r="E27" t="n">
-        <v>10.164</v>
+        <v>20.276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>133.62</v>
+        <v>241.54</v>
       </c>
       <c r="D28" t="n">
-        <v>204.52</v>
+        <v>293.74</v>
       </c>
       <c r="E28" t="n">
-        <v>16.968</v>
+        <v>14.076</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>220.02</v>
+        <v>171.24</v>
       </c>
       <c r="D29" t="n">
-        <v>262.24</v>
+        <v>238.54</v>
       </c>
       <c r="E29" t="n">
-        <v>12.476</v>
+        <v>16.636</v>
       </c>
     </row>
     <row r="30">
@@ -998,36 +998,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>236.72</v>
+        <v>222.36</v>
       </c>
       <c r="D30" t="n">
-        <v>311.42</v>
+        <v>299.3</v>
       </c>
       <c r="E30" t="n">
-        <v>11.448</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>262.24</v>
+        <v>238.54</v>
       </c>
       <c r="D31" t="n">
-        <v>310.56</v>
+        <v>272.72</v>
       </c>
       <c r="E31" t="n">
-        <v>9.263999999999999</v>
+        <v>14.348</v>
       </c>
     </row>
   </sheetData>
